--- a/biology/Zoologie/Gryllomimus_perfectus/Gryllomimus_perfectus.xlsx
+++ b/biology/Zoologie/Gryllomimus_perfectus/Gryllomimus_perfectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gryllomimus perfectus est une espèce d'insectes orthoptères de la famille des Gryllidae, la seule du genre Gryllomimus et de la sous-famille des Gryllomiminae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gryllomimus perfectus est une espèce d'insectes orthoptères de la famille des Gryllidae, la seule du genre Gryllomimus et de la sous-famille des Gryllomiminae.
 Les Gryllomiminae appartiennent à un groupe avec les Gryllinae Laicharting, 1781, les Itarinae Chopard 1932, les Gryllomorphinae Saussure 1877, les Landrevinae Gorochov 1982, les Sclerogryllinae Gorochov 1985 et les †Gryllospeculinae Gorochov 1985.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre au Burkina Faso.
 </t>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gorochov, 1986 : System and morphological evolution of crickets from the family Gryllidae (Orthoptera) with description of new taxa. Communication 2. Zoologicheskii Zhurnal, vol. 65, n. 6, p. 851-858.</t>
         </is>
